--- a/data/Poland PhysNew.xlsx
+++ b/data/Poland PhysNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITwork\Rodl_stan_magazynowy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD97535-B37C-4137-BDEE-4A1E55A33CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC87780-0A88-4E43-830B-DC81C2A0639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{F0DD5020-8792-4872-A2DF-FE2B7C0C79C1}"/>
   </bookViews>
@@ -13251,8 +13251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88E71AF-0BE1-44F6-ADEA-8A24DD407BB0}">
   <dimension ref="A4:A1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20109,6 +20109,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20117,7 +20118,7 @@
   <dimension ref="A4:A1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1387"/>
+      <selection activeCell="A12" sqref="A12:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
